--- a/Capstone_regPrecise/nodes_G98.xlsx
+++ b/Capstone_regPrecise/nodes_G98.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="627">
   <si>
     <t>from</t>
   </si>
@@ -194,31 +194,1705 @@
     <t>bioB</t>
   </si>
   <si>
+    <t>bioA</t>
+  </si>
+  <si>
+    <t>bioD</t>
+  </si>
+  <si>
+    <t>bioY</t>
+  </si>
+  <si>
+    <t>bioM</t>
+  </si>
+  <si>
+    <t>bioN</t>
+  </si>
+  <si>
+    <t>cysJ</t>
+  </si>
+  <si>
     <t>cg2796</t>
   </si>
   <si>
-    <t>bioY</t>
+    <t>cg2797</t>
+  </si>
+  <si>
+    <t>cg2311</t>
+  </si>
+  <si>
+    <t>cg0527</t>
+  </si>
+  <si>
+    <t>cg3156</t>
+  </si>
+  <si>
+    <t>cg1642</t>
+  </si>
+  <si>
+    <t>cg1405</t>
+  </si>
+  <si>
+    <t>cg0955</t>
+  </si>
+  <si>
+    <t>cg1088</t>
+  </si>
+  <si>
+    <t>cg1089</t>
+  </si>
+  <si>
+    <t>hrrA</t>
+  </si>
+  <si>
+    <t>frgC</t>
+  </si>
+  <si>
+    <t>frgB</t>
+  </si>
+  <si>
+    <t>frgA</t>
+  </si>
+  <si>
+    <t>cg3394</t>
+  </si>
+  <si>
+    <t>cysI</t>
+  </si>
+  <si>
+    <t>cysX</t>
+  </si>
+  <si>
+    <t>cysH</t>
+  </si>
+  <si>
+    <t>cysD</t>
+  </si>
+  <si>
+    <t>cysN</t>
+  </si>
+  <si>
+    <t>cysY</t>
+  </si>
+  <si>
+    <t>cysZ</t>
+  </si>
+  <si>
+    <t>fepB1</t>
+  </si>
+  <si>
+    <t>ripA</t>
+  </si>
+  <si>
+    <t>cg0470</t>
+  </si>
+  <si>
+    <t>cg0471</t>
+  </si>
+  <si>
+    <t>cg1520</t>
+  </si>
+  <si>
+    <t>cg1931</t>
+  </si>
+  <si>
+    <t>cbrA</t>
+  </si>
+  <si>
+    <t>cg0922</t>
+  </si>
+  <si>
+    <t>cg0921</t>
+  </si>
+  <si>
+    <t>ftn</t>
+  </si>
+  <si>
+    <t>sufR</t>
+  </si>
+  <si>
+    <t>sufB</t>
+  </si>
+  <si>
+    <t>sufD</t>
+  </si>
+  <si>
+    <t>sufC</t>
+  </si>
+  <si>
+    <t>sufS</t>
+  </si>
+  <si>
+    <t>sufU</t>
+  </si>
+  <si>
+    <t>sufT</t>
+  </si>
+  <si>
+    <t>cg1070</t>
+  </si>
+  <si>
+    <t>irp1A</t>
+  </si>
+  <si>
+    <t>irp1B</t>
+  </si>
+  <si>
+    <t>irp1C</t>
+  </si>
+  <si>
+    <t>irp1D</t>
+  </si>
+  <si>
+    <t>irp1E</t>
+  </si>
+  <si>
+    <t>xerC</t>
+  </si>
+  <si>
+    <t>fepB2</t>
+  </si>
+  <si>
+    <t>cg0160</t>
+  </si>
+  <si>
+    <t>feuB</t>
+  </si>
+  <si>
+    <t>feuC</t>
+  </si>
+  <si>
+    <t>feuA</t>
+  </si>
+  <si>
+    <t>feuS</t>
+  </si>
+  <si>
+    <t>frgD</t>
+  </si>
+  <si>
+    <t>htaA</t>
+  </si>
+  <si>
+    <t>hmuT</t>
+  </si>
+  <si>
+    <t>hmuU</t>
+  </si>
+  <si>
+    <t>hmuV</t>
+  </si>
+  <si>
+    <t>hmuO</t>
+  </si>
+  <si>
+    <t>sdhC</t>
+  </si>
+  <si>
+    <t>sdhA</t>
+  </si>
+  <si>
+    <t>sdhB</t>
+  </si>
+  <si>
+    <t>cg0448</t>
+  </si>
+  <si>
+    <t>cg3082</t>
+  </si>
+  <si>
+    <t>cg3083</t>
+  </si>
+  <si>
+    <t>dps</t>
+  </si>
+  <si>
+    <t>cglIM</t>
+  </si>
+  <si>
+    <t>cglIR</t>
+  </si>
+  <si>
+    <t>cglIIR</t>
+  </si>
+  <si>
+    <t>cg0096</t>
+  </si>
+  <si>
+    <t>cadR</t>
+  </si>
+  <si>
+    <t>cadD</t>
+  </si>
+  <si>
+    <t>qorR</t>
+  </si>
+  <si>
+    <t>qorB</t>
+  </si>
+  <si>
+    <t>whiB4</t>
+  </si>
+  <si>
+    <t>cg2361</t>
+  </si>
+  <si>
+    <t>ramA</t>
+  </si>
+  <si>
+    <t>cg2965</t>
+  </si>
+  <si>
+    <t>cg0952</t>
   </si>
   <si>
     <t>mctC</t>
   </si>
   <si>
+    <t>glxR</t>
+  </si>
+  <si>
+    <t>nrdF</t>
+  </si>
+  <si>
+    <t>benK</t>
+  </si>
+  <si>
+    <t>benE</t>
+  </si>
+  <si>
+    <t>cg2610</t>
+  </si>
+  <si>
+    <t>gltB</t>
+  </si>
+  <si>
+    <t>gltD</t>
+  </si>
+  <si>
+    <t>ramB</t>
+  </si>
+  <si>
+    <t>benA</t>
+  </si>
+  <si>
+    <t>benB</t>
+  </si>
+  <si>
+    <t>benC</t>
+  </si>
+  <si>
+    <t>benD</t>
+  </si>
+  <si>
+    <t>xylC</t>
+  </si>
+  <si>
+    <t>cg2952</t>
+  </si>
+  <si>
+    <t>catA</t>
+  </si>
+  <si>
+    <t>catB</t>
+  </si>
+  <si>
+    <t>catC</t>
+  </si>
+  <si>
+    <t>whiB1</t>
+  </si>
+  <si>
+    <t>cg0879</t>
+  </si>
+  <si>
+    <t>nlpC</t>
+  </si>
+  <si>
+    <t>serC</t>
+  </si>
+  <si>
+    <t>metX</t>
+  </si>
+  <si>
+    <t>fas-IB</t>
+  </si>
+  <si>
+    <t>accDA</t>
+  </si>
+  <si>
+    <t>rpf2</t>
+  </si>
+  <si>
+    <t>ksgA</t>
+  </si>
+  <si>
+    <t>ispE</t>
+  </si>
+  <si>
+    <t>cg1040</t>
+  </si>
+  <si>
+    <t>pdxK</t>
+  </si>
+  <si>
+    <t>utrA</t>
+  </si>
+  <si>
+    <t>utrB</t>
+  </si>
+  <si>
+    <t>utrD</t>
+  </si>
+  <si>
+    <t>utrE</t>
+  </si>
+  <si>
+    <t>cg1086</t>
+  </si>
+  <si>
+    <t>cg1142</t>
+  </si>
+  <si>
+    <t>cg1141</t>
+  </si>
+  <si>
+    <t>cg1140</t>
+  </si>
+  <si>
+    <t>cg1139</t>
+  </si>
+  <si>
+    <t>cg1143</t>
+  </si>
+  <si>
+    <t>cg1144</t>
+  </si>
+  <si>
+    <t>fum</t>
+  </si>
+  <si>
+    <t>pobA</t>
+  </si>
+  <si>
+    <t>pcaK</t>
+  </si>
+  <si>
+    <t>rolH</t>
+  </si>
+  <si>
+    <t>rolM</t>
+  </si>
+  <si>
+    <t>rolD</t>
+  </si>
+  <si>
+    <t>deaD</t>
+  </si>
+  <si>
+    <t>cg0360</t>
+  </si>
+  <si>
+    <t>narK</t>
+  </si>
+  <si>
+    <t>narG</t>
+  </si>
+  <si>
+    <t>narH</t>
+  </si>
+  <si>
+    <t>narJ</t>
+  </si>
+  <si>
+    <t>narI</t>
+  </si>
+  <si>
+    <t>qacA</t>
+  </si>
+  <si>
+    <t>qacR</t>
+  </si>
+  <si>
+    <t>qacX</t>
+  </si>
+  <si>
+    <t>pfkA</t>
+  </si>
+  <si>
+    <t>dnaB</t>
+  </si>
+  <si>
+    <t>ptsG</t>
+  </si>
+  <si>
+    <t>cspB</t>
+  </si>
+  <si>
+    <t>ndh</t>
+  </si>
+  <si>
+    <t>uspA2</t>
+  </si>
+  <si>
+    <t>ctaE</t>
+  </si>
+  <si>
+    <t>qcrC</t>
+  </si>
+  <si>
+    <t>qcrA</t>
+  </si>
+  <si>
+    <t>qcrB</t>
+  </si>
+  <si>
+    <t>mptB</t>
+  </si>
+  <si>
+    <t>CORAM0001_0942</t>
+  </si>
+  <si>
+    <t>CORAM0001_0941</t>
+  </si>
+  <si>
+    <t>ctaA</t>
+  </si>
+  <si>
+    <t>fruR</t>
+  </si>
+  <si>
+    <t>pfkB</t>
+  </si>
+  <si>
+    <t>ptsF</t>
+  </si>
+  <si>
+    <t>ptsH</t>
+  </si>
+  <si>
+    <t>ptsI</t>
+  </si>
+  <si>
+    <t>gdh</t>
+  </si>
+  <si>
+    <t>gluA</t>
+  </si>
+  <si>
+    <t>gluB</t>
+  </si>
+  <si>
+    <t>gluC</t>
+  </si>
+  <si>
+    <t>gluD</t>
+  </si>
+  <si>
+    <t>amtB</t>
+  </si>
+  <si>
+    <t>glnK</t>
+  </si>
+  <si>
+    <t>glnD</t>
+  </si>
+  <si>
+    <t>cg1840</t>
+  </si>
+  <si>
+    <t>cg1839</t>
+  </si>
+  <si>
+    <t>PF09900</t>
+  </si>
+  <si>
+    <t>iolC</t>
+  </si>
+  <si>
+    <t>iolX</t>
+  </si>
+  <si>
+    <t>iolA</t>
+  </si>
+  <si>
+    <t>iolB</t>
+  </si>
+  <si>
+    <t>iolD</t>
+  </si>
+  <si>
+    <t>iolE</t>
+  </si>
+  <si>
+    <t>iolG</t>
+  </si>
+  <si>
+    <t>iolH</t>
+  </si>
+  <si>
+    <t>cg3388</t>
+  </si>
+  <si>
+    <t>genK</t>
+  </si>
+  <si>
+    <t>genH</t>
+  </si>
+  <si>
+    <t>genR</t>
+  </si>
+  <si>
+    <t>dtpT</t>
+  </si>
+  <si>
+    <t>genD</t>
+  </si>
+  <si>
+    <t>genF</t>
+  </si>
+  <si>
+    <t>genM</t>
+  </si>
+  <si>
+    <t>cg2824</t>
+  </si>
+  <si>
+    <t>cg0875</t>
+  </si>
+  <si>
+    <t>cg3389</t>
+  </si>
+  <si>
+    <t>cg3390</t>
+  </si>
+  <si>
+    <t>idhA1</t>
+  </si>
+  <si>
+    <t>idhA2</t>
+  </si>
+  <si>
+    <t>srtB</t>
+  </si>
+  <si>
+    <t>cg3250</t>
+  </si>
+  <si>
+    <t>rpf1</t>
+  </si>
+  <si>
+    <t>cg3220</t>
+  </si>
+  <si>
+    <t>cg3221</t>
+  </si>
+  <si>
+    <t>cg3223</t>
+  </si>
+  <si>
+    <t>cg3226</t>
+  </si>
+  <si>
+    <t>lldD</t>
+  </si>
+  <si>
+    <t>ldh</t>
+  </si>
+  <si>
+    <t>pkp</t>
+  </si>
+  <si>
+    <t>glpQ</t>
+  </si>
+  <si>
+    <t>cg3214</t>
+  </si>
+  <si>
+    <t>glcB</t>
+  </si>
+  <si>
+    <t>ctaD</t>
+  </si>
+  <si>
+    <t>serB</t>
+  </si>
+  <si>
+    <t>cg2778</t>
+  </si>
+  <si>
+    <t>copR</t>
+  </si>
+  <si>
+    <t>copS</t>
+  </si>
+  <si>
+    <t>copZ</t>
+  </si>
+  <si>
+    <t>copB</t>
+  </si>
+  <si>
+    <t>cg3170</t>
+  </si>
+  <si>
+    <t>metE</t>
+  </si>
+  <si>
+    <t>pck</t>
+  </si>
+  <si>
+    <t>tctC</t>
+  </si>
+  <si>
+    <t>tctB</t>
+  </si>
+  <si>
+    <t>tctA</t>
+  </si>
+  <si>
+    <t>adhA</t>
+  </si>
+  <si>
+    <t>aldA</t>
+  </si>
+  <si>
+    <t>pta</t>
+  </si>
+  <si>
+    <t>ackA</t>
+  </si>
+  <si>
+    <t>actA</t>
+  </si>
+  <si>
+    <t>sucC</t>
+  </si>
+  <si>
+    <t>sucD</t>
+  </si>
+  <si>
+    <t>glnA</t>
+  </si>
+  <si>
+    <t>ctaC</t>
+  </si>
+  <si>
+    <t>ctaF</t>
+  </si>
+  <si>
+    <t>gntK</t>
+  </si>
+  <si>
+    <t>gntP</t>
+  </si>
+  <si>
+    <t>cg3195</t>
+  </si>
+  <si>
+    <t>ltsA</t>
+  </si>
+  <si>
+    <t>msiK1</t>
+  </si>
+  <si>
+    <t>cg2707</t>
+  </si>
+  <si>
+    <t>pcaH</t>
+  </si>
+  <si>
+    <t>pcaG</t>
+  </si>
+  <si>
+    <t>pcaB</t>
+  </si>
+  <si>
+    <t>pcaC</t>
+  </si>
+  <si>
+    <t>vanA</t>
+  </si>
+  <si>
+    <t>vanB</t>
+  </si>
+  <si>
+    <t>vanK</t>
+  </si>
+  <si>
+    <t>aceA</t>
+  </si>
+  <si>
+    <t>birA</t>
+  </si>
+  <si>
+    <t>cg0815</t>
+  </si>
+  <si>
+    <t>purK</t>
+  </si>
+  <si>
+    <t>kup</t>
+  </si>
+  <si>
+    <t>cg0819</t>
+  </si>
+  <si>
+    <t>purE</t>
+  </si>
+  <si>
+    <t>cg0821</t>
+  </si>
+  <si>
+    <t>cg2739</t>
+  </si>
+  <si>
+    <t>acpS</t>
+  </si>
+  <si>
+    <t>pyc</t>
+  </si>
+  <si>
+    <t>prpD</t>
+  </si>
+  <si>
+    <t>prpB</t>
+  </si>
+  <si>
+    <t>prpC</t>
+  </si>
+  <si>
+    <t>accD1</t>
+  </si>
+  <si>
+    <t>gabT2</t>
+  </si>
+  <si>
+    <t>gabD2</t>
+  </si>
+  <si>
+    <t>gabP</t>
+  </si>
+  <si>
+    <t>fas-IA</t>
+  </si>
+  <si>
+    <t>thrC</t>
+  </si>
+  <si>
+    <t>recJ</t>
+  </si>
+  <si>
+    <t>citH</t>
+  </si>
+  <si>
+    <t>pqo</t>
+  </si>
+  <si>
+    <t>cg3286</t>
+  </si>
+  <si>
+    <t>copO</t>
+  </si>
+  <si>
+    <t>ugpA</t>
+  </si>
+  <si>
+    <t>ugpE</t>
+  </si>
+  <si>
+    <t>ugpB</t>
+  </si>
+  <si>
+    <t>ugpC</t>
+  </si>
+  <si>
+    <t>pstS</t>
+  </si>
+  <si>
+    <t>pstC</t>
+  </si>
+  <si>
+    <t>pstA</t>
+  </si>
+  <si>
+    <t>pstB</t>
+  </si>
+  <si>
+    <t>fabG1</t>
+  </si>
+  <si>
+    <t>cg0345</t>
+  </si>
+  <si>
+    <t>fadE</t>
+  </si>
+  <si>
+    <t>fadB</t>
+  </si>
+  <si>
+    <t>cg0247</t>
+  </si>
+  <si>
+    <t>glfT</t>
+  </si>
+  <si>
+    <t>cg1735</t>
+  </si>
+  <si>
+    <t>ppc</t>
+  </si>
+  <si>
+    <t>pgk</t>
+  </si>
+  <si>
+    <t>tpiA</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>gltA</t>
+  </si>
+  <si>
+    <t>ilvB</t>
+  </si>
+  <si>
+    <t>ilvN</t>
+  </si>
+  <si>
+    <t>ilvC</t>
+  </si>
+  <si>
+    <t>echA3</t>
+  </si>
+  <si>
+    <t>cg1050</t>
+  </si>
+  <si>
+    <t>putP</t>
+  </si>
+  <si>
+    <t>cg1313</t>
+  </si>
+  <si>
+    <t>cg1314</t>
+  </si>
+  <si>
+    <t>acn</t>
+  </si>
+  <si>
+    <t>acnR</t>
+  </si>
+  <si>
+    <t>gat</t>
+  </si>
+  <si>
+    <t>znuC2</t>
+  </si>
+  <si>
+    <t>5915809</t>
+  </si>
+  <si>
+    <t>mntA</t>
+  </si>
+  <si>
+    <t>cg0040</t>
+  </si>
+  <si>
+    <t>DIP0441</t>
+  </si>
+  <si>
     <t>znuA</t>
   </si>
   <si>
+    <t>znuC</t>
+  </si>
+  <si>
+    <t>znuB</t>
+  </si>
+  <si>
+    <t>yciC</t>
+  </si>
+  <si>
+    <t>nrdH</t>
+  </si>
+  <si>
+    <t>nrdI</t>
+  </si>
+  <si>
+    <t>nrdE</t>
+  </si>
+  <si>
+    <t>nrtR</t>
+  </si>
+  <si>
+    <t>nadA</t>
+  </si>
+  <si>
+    <t>nadC</t>
+  </si>
+  <si>
+    <t>gabR</t>
+  </si>
+  <si>
+    <t>copY</t>
+  </si>
+  <si>
+    <t>copA</t>
+  </si>
+  <si>
+    <t>csoR</t>
+  </si>
+  <si>
+    <t>arsB</t>
+  </si>
+  <si>
+    <t>arsC</t>
+  </si>
+  <si>
+    <t>arsR</t>
+  </si>
+  <si>
+    <t>groL2</t>
+  </si>
+  <si>
+    <t>groS</t>
+  </si>
+  <si>
+    <t>groL1</t>
+  </si>
+  <si>
+    <t>tnp1a</t>
+  </si>
+  <si>
+    <t>ldhA</t>
+  </si>
+  <si>
+    <t>CE2754</t>
+  </si>
+  <si>
+    <t>CE2755</t>
+  </si>
+  <si>
+    <t>CE2756</t>
+  </si>
+  <si>
+    <t>lldR</t>
+  </si>
+  <si>
+    <t>CE2758</t>
+  </si>
+  <si>
+    <t>citA</t>
+  </si>
+  <si>
+    <t>citB</t>
+  </si>
+  <si>
+    <t>acnA</t>
+  </si>
+  <si>
+    <t>cg0713</t>
+  </si>
+  <si>
+    <t>dinP</t>
+  </si>
+  <si>
+    <t>cg2733</t>
+  </si>
+  <si>
+    <t>radA</t>
+  </si>
+  <si>
+    <t>cg2683</t>
+  </si>
+  <si>
+    <t>cg0841</t>
+  </si>
+  <si>
+    <t>pdxS</t>
+  </si>
+  <si>
+    <t>pdxT</t>
+  </si>
+  <si>
+    <t>cg1080</t>
+  </si>
+  <si>
+    <t>cg2026</t>
+  </si>
+  <si>
+    <t>recA</t>
+  </si>
+  <si>
     <t>recX</t>
   </si>
   <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>cg1289</t>
+  </si>
+  <si>
+    <t>dnaE2</t>
+  </si>
+  <si>
+    <t>cg1884</t>
+  </si>
+  <si>
+    <t>divS</t>
+  </si>
+  <si>
+    <t>cg0742</t>
+  </si>
+  <si>
+    <t>cg2381</t>
+  </si>
+  <si>
+    <t>cg2034</t>
+  </si>
+  <si>
+    <t>cg0834</t>
+  </si>
+  <si>
+    <t>5916390</t>
+  </si>
+  <si>
+    <t>Cg1429</t>
+  </si>
+  <si>
+    <t>ftsK</t>
+  </si>
+  <si>
+    <t>sbcD</t>
+  </si>
+  <si>
+    <t>sbcC</t>
+  </si>
+  <si>
+    <t>lexA</t>
+  </si>
+  <si>
+    <t>uvrA</t>
+  </si>
+  <si>
+    <t>cg1255</t>
+  </si>
+  <si>
+    <t>recN</t>
+  </si>
+  <si>
+    <t>ruvC</t>
+  </si>
+  <si>
+    <t>ruvA</t>
+  </si>
+  <si>
+    <t>ruvB</t>
+  </si>
+  <si>
+    <t>cg0979</t>
+  </si>
+  <si>
+    <t>cg0978</t>
+  </si>
+  <si>
+    <t>cg0977</t>
+  </si>
+  <si>
+    <t>clpP1</t>
+  </si>
+  <si>
+    <t>clpP2</t>
+  </si>
+  <si>
+    <t>clpC</t>
+  </si>
+  <si>
+    <t>ylbL</t>
+  </si>
+  <si>
+    <t>ptrB</t>
+  </si>
+  <si>
+    <t>cg0297</t>
+  </si>
+  <si>
+    <t>recR</t>
+  </si>
+  <si>
+    <t>cg0892</t>
+  </si>
+  <si>
+    <t>hflX</t>
+  </si>
+  <si>
+    <t>cg3372</t>
+  </si>
+  <si>
+    <t>metH</t>
+  </si>
+  <si>
+    <t>cg2679</t>
+  </si>
+  <si>
+    <t>cg2678</t>
+  </si>
+  <si>
+    <t>cg2677</t>
+  </si>
+  <si>
+    <t>cg2676</t>
+  </si>
+  <si>
+    <t>cg2675</t>
+  </si>
+  <si>
+    <t>cg2674</t>
+  </si>
+  <si>
+    <t>cg1739</t>
+  </si>
+  <si>
+    <t>gltT</t>
+  </si>
+  <si>
+    <t>metY</t>
+  </si>
+  <si>
     <t>cysR</t>
   </si>
   <si>
+    <t>ssuR</t>
+  </si>
+  <si>
+    <t>ssuI</t>
+  </si>
+  <si>
+    <t>ssuD</t>
+  </si>
+  <si>
+    <t>ssuC</t>
+  </si>
+  <si>
+    <t>ssuB</t>
+  </si>
+  <si>
+    <t>ssuA</t>
+  </si>
+  <si>
+    <t>metK</t>
+  </si>
+  <si>
+    <t>priA</t>
+  </si>
+  <si>
+    <t>mcbR</t>
+  </si>
+  <si>
+    <t>hom</t>
+  </si>
+  <si>
+    <t>thrB</t>
+  </si>
+  <si>
+    <t>metQ</t>
+  </si>
+  <si>
+    <t>metN</t>
+  </si>
+  <si>
+    <t>metI</t>
+  </si>
+  <si>
+    <t>cysK</t>
+  </si>
+  <si>
+    <t>cysE</t>
+  </si>
+  <si>
+    <t>seuA</t>
+  </si>
+  <si>
+    <t>seuB</t>
+  </si>
+  <si>
+    <t>seuC</t>
+  </si>
+  <si>
+    <t>cg3132</t>
+  </si>
+  <si>
+    <t>metB</t>
+  </si>
+  <si>
+    <t>fixB</t>
+  </si>
+  <si>
+    <t>fixA</t>
+  </si>
+  <si>
+    <t>iscS</t>
+  </si>
+  <si>
+    <t>qsuA</t>
+  </si>
+  <si>
+    <t>qsuB</t>
+  </si>
+  <si>
+    <t>qsuC</t>
+  </si>
+  <si>
+    <t>qsuD</t>
+  </si>
+  <si>
+    <t>qsuR</t>
+  </si>
+  <si>
+    <t>fasA</t>
+  </si>
+  <si>
+    <t>accBC</t>
+  </si>
+  <si>
+    <t>fasB</t>
+  </si>
+  <si>
+    <t>vanR</t>
+  </si>
+  <si>
+    <t>pcaI</t>
+  </si>
+  <si>
+    <t>pcaJ</t>
+  </si>
+  <si>
+    <t>pcaR</t>
+  </si>
+  <si>
+    <t>pcaF</t>
+  </si>
+  <si>
+    <t>pcaL</t>
+  </si>
+  <si>
+    <t>pcaO</t>
+  </si>
+  <si>
+    <t>sodA</t>
+  </si>
+  <si>
+    <t>msrA</t>
+  </si>
+  <si>
+    <t>rosR</t>
+  </si>
+  <si>
+    <t>cg2329</t>
+  </si>
+  <si>
+    <t>cg3084</t>
+  </si>
+  <si>
+    <t>cg3085</t>
+  </si>
+  <si>
+    <t>cg1322</t>
+  </si>
+  <si>
+    <t>ywcH</t>
+  </si>
+  <si>
+    <t>cg1849</t>
+  </si>
+  <si>
+    <t>msuE</t>
+  </si>
+  <si>
+    <t>cg1150</t>
+  </si>
+  <si>
+    <t>yqjG</t>
+  </si>
+  <si>
+    <t>gntR</t>
+  </si>
+  <si>
+    <t>ptsS</t>
+  </si>
+  <si>
+    <t>tkt</t>
+  </si>
+  <si>
+    <t>tal</t>
+  </si>
+  <si>
+    <t>zwf</t>
+  </si>
+  <si>
+    <t>opcA</t>
+  </si>
+  <si>
+    <t>devB</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>uriR</t>
+  </si>
+  <si>
+    <t>rbsK</t>
+  </si>
+  <si>
+    <t>uriT</t>
+  </si>
+  <si>
+    <t>uriH</t>
+  </si>
+  <si>
+    <t>sutR</t>
+  </si>
+  <si>
+    <t>sufP</t>
+  </si>
+  <si>
+    <t>amtA</t>
+  </si>
+  <si>
+    <t>ocd</t>
+  </si>
+  <si>
+    <t>soxA</t>
+  </si>
+  <si>
+    <t>hkm</t>
+  </si>
+  <si>
+    <t>codA</t>
+  </si>
+  <si>
+    <t>crnT</t>
+  </si>
+  <si>
+    <t>ureA</t>
+  </si>
+  <si>
+    <t>ureB</t>
+  </si>
+  <si>
+    <t>ureC</t>
+  </si>
+  <si>
+    <t>ureE</t>
+  </si>
+  <si>
+    <t>ureF</t>
+  </si>
+  <si>
+    <t>ureG</t>
+  </si>
+  <si>
+    <t>ureD</t>
+  </si>
+  <si>
+    <t>cg2181</t>
+  </si>
+  <si>
+    <t>cg2182</t>
+  </si>
+  <si>
+    <t>cg2183</t>
+  </si>
+  <si>
+    <t>cg2184</t>
+  </si>
+  <si>
+    <t>cg1296</t>
+  </si>
+  <si>
+    <t>cg1295</t>
+  </si>
+  <si>
+    <t>urtA</t>
+  </si>
+  <si>
+    <t>urtB</t>
+  </si>
+  <si>
+    <t>urtC</t>
+  </si>
+  <si>
     <t>urtD</t>
   </si>
   <si>
+    <t>urtE</t>
+  </si>
+  <si>
+    <t>rbsR</t>
+  </si>
+  <si>
+    <t>rbsA</t>
+  </si>
+  <si>
+    <t>rbsC</t>
+  </si>
+  <si>
+    <t>rbsB</t>
+  </si>
+  <si>
+    <t>rbsD</t>
+  </si>
+  <si>
+    <t>cg0454</t>
+  </si>
+  <si>
+    <t>cg0455</t>
+  </si>
+  <si>
+    <t>dnaK</t>
+  </si>
+  <si>
+    <t>grpE</t>
+  </si>
+  <si>
+    <t>dnaJ</t>
+  </si>
+  <si>
+    <t>hspR</t>
+  </si>
+  <si>
+    <t>clpB</t>
+  </si>
+  <si>
+    <t>cg1054</t>
+  </si>
+  <si>
+    <t>cg1053</t>
+  </si>
+  <si>
+    <t>carA</t>
+  </si>
+  <si>
+    <t>carB</t>
+  </si>
+  <si>
+    <t>pyrF</t>
+  </si>
+  <si>
+    <t>argC</t>
+  </si>
+  <si>
+    <t>argJ</t>
+  </si>
+  <si>
+    <t>argB</t>
+  </si>
+  <si>
+    <t>argD</t>
+  </si>
+  <si>
+    <t>argF</t>
+  </si>
+  <si>
+    <t>argR</t>
+  </si>
+  <si>
+    <t>argG</t>
+  </si>
+  <si>
+    <t>argH</t>
+  </si>
+  <si>
+    <t>cg1212</t>
+  </si>
+  <si>
+    <t>cg1211</t>
+  </si>
+  <si>
+    <t>lysG</t>
+  </si>
+  <si>
+    <t>lysE</t>
+  </si>
+  <si>
+    <t>cg1832</t>
+  </si>
+  <si>
+    <t>cg1833</t>
+  </si>
+  <si>
+    <t>cg1834</t>
+  </si>
+  <si>
+    <t>cg1831</t>
+  </si>
+  <si>
     <t>mntT</t>
   </si>
   <si>
+    <t>cg3240</t>
+  </si>
+  <si>
+    <t>cg3239</t>
+  </si>
+  <si>
+    <t>iolR2</t>
+  </si>
+  <si>
+    <t>iolG2</t>
+  </si>
+  <si>
+    <t>iolE2</t>
+  </si>
+  <si>
     <t>lp_2742</t>
+  </si>
+  <si>
+    <t>cytP</t>
+  </si>
+  <si>
+    <t>ppsB</t>
+  </si>
+  <si>
+    <t>ppsA</t>
+  </si>
+  <si>
+    <t>fabG2</t>
+  </si>
+  <si>
+    <t>fdxB</t>
+  </si>
+  <si>
+    <t>thcD</t>
+  </si>
+  <si>
+    <t>cg0638</t>
+  </si>
+  <si>
+    <t>betB</t>
+  </si>
+  <si>
+    <t>znr</t>
+  </si>
+  <si>
+    <t>zur</t>
+  </si>
+  <si>
+    <t>pctH</t>
+  </si>
+  <si>
+    <t>pctA</t>
+  </si>
+  <si>
+    <t>pctB</t>
+  </si>
+  <si>
+    <t>pctC</t>
+  </si>
+  <si>
+    <t>pctD</t>
+  </si>
+  <si>
+    <t>pctR</t>
+  </si>
+  <si>
+    <t>glgA</t>
+  </si>
+  <si>
+    <t>iolT1</t>
+  </si>
+  <si>
+    <t>iolR</t>
+  </si>
+  <si>
+    <t>iolJ</t>
+  </si>
+  <si>
+    <t>iolP</t>
+  </si>
+  <si>
+    <t>oxiA</t>
+  </si>
+  <si>
+    <t>trpE</t>
+  </si>
+  <si>
+    <t>leuB</t>
+  </si>
+  <si>
+    <t>leuC</t>
+  </si>
+  <si>
+    <t>leuD</t>
+  </si>
+  <si>
+    <t>cg1658</t>
+  </si>
+  <si>
+    <t>ltbR</t>
+  </si>
+  <si>
+    <t>COG1914</t>
+  </si>
+  <si>
+    <t>COG1540</t>
+  </si>
+  <si>
+    <t>alhA</t>
+  </si>
+  <si>
+    <t>alhB</t>
+  </si>
+  <si>
+    <t>COG4336</t>
+  </si>
+  <si>
+    <t>cg2544</t>
+  </si>
+  <si>
+    <t>cg2543</t>
+  </si>
+  <si>
+    <t>cg2542</t>
+  </si>
+  <si>
+    <t>cg2541</t>
+  </si>
+  <si>
+    <t>nanR</t>
+  </si>
+  <si>
+    <t>nanX</t>
+  </si>
+  <si>
+    <t>nagA</t>
+  </si>
+  <si>
+    <t>nagB</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>nanA</t>
+  </si>
+  <si>
+    <t>nanK</t>
+  </si>
+  <si>
+    <t>nanE</t>
+  </si>
+  <si>
+    <t>cg2313</t>
+  </si>
+  <si>
+    <t>cg2312</t>
+  </si>
+  <si>
+    <t>cg2314</t>
   </si>
 </sst>
 </file>
@@ -290,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -298,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -306,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -314,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -322,15 +1996,15 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#N/A</v>
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -338,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -346,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -354,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -362,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -370,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -378,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -386,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -402,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -410,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -418,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -426,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -434,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -442,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -450,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -458,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -466,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -474,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -482,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -490,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -498,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -506,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -514,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -522,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -530,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -538,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -546,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -554,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -562,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -570,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -578,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -586,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -594,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -602,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -610,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -618,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -626,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
@@ -634,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -642,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -650,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
@@ -658,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
@@ -666,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
@@ -674,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
@@ -682,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
@@ -690,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
@@ -698,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
@@ -706,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
@@ -714,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
@@ -722,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
@@ -730,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
@@ -738,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
@@ -746,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
@@ -754,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
@@ -762,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
@@ -770,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64">
@@ -778,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
@@ -786,7 +2460,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -794,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
@@ -802,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
@@ -810,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
@@ -818,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
@@ -826,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
@@ -834,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
@@ -842,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
@@ -850,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
@@ -858,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
@@ -866,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
@@ -874,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77">
@@ -882,7 +2556,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78">
@@ -890,23 +2564,23 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B80" t="e">
-        <v>#N/A</v>
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="81">
@@ -914,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
@@ -922,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83">
@@ -930,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84">
@@ -938,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
@@ -946,79 +2620,79 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B88" t="e">
-        <v>#N/A</v>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" t="e">
-        <v>#N/A</v>
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" t="e">
-        <v>#N/A</v>
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B91" t="e">
-        <v>#N/A</v>
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="e">
-        <v>#N/A</v>
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" t="e">
-        <v>#N/A</v>
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B94" t="e">
-        <v>#N/A</v>
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="95">
@@ -1026,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
@@ -1034,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
@@ -1042,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -1050,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
@@ -1058,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
@@ -1066,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
@@ -1074,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
@@ -1082,7 +2756,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
@@ -1090,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
@@ -1098,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105">
@@ -1106,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106">
@@ -1114,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
@@ -1122,7 +2796,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
@@ -1130,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
@@ -1138,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
@@ -1146,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
@@ -1154,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
@@ -1162,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
@@ -1170,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
@@ -1178,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
@@ -1186,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
@@ -1194,7 +2868,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
@@ -1202,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
@@ -1210,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
@@ -1218,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
@@ -1226,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
@@ -1234,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
@@ -1242,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
@@ -1250,7 +2924,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124">
@@ -1258,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
@@ -1266,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126">
@@ -1274,7 +2948,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127">
@@ -1282,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128">
@@ -1290,7 +2964,7 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129">
@@ -1298,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130">
@@ -1306,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131">
@@ -1314,7 +2988,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132">
@@ -1322,7 +2996,7 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133">
@@ -1330,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134">
@@ -1338,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135">
@@ -1346,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136">
@@ -1354,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137">
@@ -1362,7 +3036,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138">
@@ -1370,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139">
@@ -1378,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140">
@@ -1386,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141">
@@ -1394,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142">
@@ -1402,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143">
@@ -1410,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144">
@@ -1418,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145">
@@ -1426,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146">
@@ -1434,7 +3108,7 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147">
@@ -1442,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148">
@@ -1450,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149">
@@ -1458,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150">
@@ -1466,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151">
@@ -1474,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152">
@@ -1482,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153">
@@ -1490,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154">
@@ -1498,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155">
@@ -1506,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156">
@@ -1514,7 +3188,7 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157">
@@ -1522,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158">
@@ -1530,7 +3204,7 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159">
@@ -1538,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160">
@@ -1546,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161">
@@ -1554,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162">
@@ -1562,7 +3236,7 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163">
@@ -1570,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164">
@@ -1578,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165">
@@ -1586,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166">
@@ -1594,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167">
@@ -1602,7 +3276,7 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
     </row>
     <row r="168">
@@ -1610,7 +3284,7 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169">
@@ -1618,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170">
@@ -1626,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171">
@@ -1634,7 +3308,7 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172">
@@ -1642,7 +3316,7 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
     </row>
     <row r="173">
@@ -1650,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174">
@@ -1658,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175">
@@ -1666,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176">
@@ -1674,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177">
@@ -1682,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178">
@@ -1690,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179">
@@ -1698,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180">
@@ -1706,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181">
@@ -1714,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182">
@@ -1722,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183">
@@ -1730,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184">
@@ -1738,7 +3412,7 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185">
@@ -1746,7 +3420,7 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186">
@@ -1754,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187">
@@ -1762,7 +3436,7 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188">
@@ -1770,7 +3444,7 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189">
@@ -1778,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190">
@@ -1786,7 +3460,7 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191">
@@ -1794,7 +3468,7 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192">
@@ -1802,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193">
@@ -1810,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194">
@@ -1818,7 +3492,7 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195">
@@ -1826,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196">
@@ -1834,7 +3508,7 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
     </row>
     <row r="197">
@@ -1842,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198">
@@ -1850,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199">
@@ -1858,7 +3532,7 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200">
@@ -1866,7 +3540,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201">
@@ -1874,7 +3548,7 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202">
@@ -1882,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203">
@@ -1890,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204">
@@ -1898,7 +3572,7 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205">
@@ -1906,7 +3580,7 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206">
@@ -1914,7 +3588,7 @@
         <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207">
@@ -1922,7 +3596,7 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208">
@@ -1930,7 +3604,7 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209">
@@ -1938,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210">
@@ -1946,7 +3620,7 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211">
@@ -1954,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212">
@@ -1962,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213">
@@ -1970,7 +3644,7 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
     </row>
     <row r="214">
@@ -1978,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215">
@@ -1986,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216">
@@ -1994,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217">
@@ -2002,7 +3676,7 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
     </row>
     <row r="218">
@@ -2010,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219">
@@ -2018,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>62</v>
+        <v>262</v>
       </c>
     </row>
     <row r="220">
@@ -2026,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221">
@@ -2034,7 +3708,7 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222">
@@ -2042,7 +3716,7 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223">
@@ -2050,7 +3724,7 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224">
@@ -2058,7 +3732,7 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225">
@@ -2066,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>62</v>
+        <v>267</v>
       </c>
     </row>
     <row r="226">
@@ -2074,7 +3748,7 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>62</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227">
@@ -2082,7 +3756,7 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>62</v>
+        <v>269</v>
       </c>
     </row>
     <row r="228">
@@ -2090,7 +3764,7 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
     </row>
     <row r="229">
@@ -2098,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230">
@@ -2106,7 +3780,7 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
     </row>
     <row r="231">
@@ -2114,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>62</v>
+        <v>272</v>
       </c>
     </row>
     <row r="232">
@@ -2122,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
     </row>
     <row r="233">
@@ -2130,7 +3804,7 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
     </row>
     <row r="234">
@@ -2138,7 +3812,7 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
     </row>
     <row r="235">
@@ -2146,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>62</v>
+        <v>276</v>
       </c>
     </row>
     <row r="236">
@@ -2154,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237">
@@ -2162,7 +3836,7 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
     </row>
     <row r="238">
@@ -2170,7 +3844,7 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>62</v>
+        <v>279</v>
       </c>
     </row>
     <row r="239">
@@ -2178,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240">
@@ -2186,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241">
@@ -2194,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>62</v>
+        <v>282</v>
       </c>
     </row>
     <row r="242">
@@ -2202,7 +3876,7 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
     </row>
     <row r="243">
@@ -2210,7 +3884,7 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>62</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244">
@@ -2218,7 +3892,7 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>62</v>
+        <v>285</v>
       </c>
     </row>
     <row r="245">
@@ -2226,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>62</v>
+        <v>286</v>
       </c>
     </row>
     <row r="246">
@@ -2234,7 +3908,7 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
     </row>
     <row r="247">
@@ -2242,7 +3916,7 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
     </row>
     <row r="248">
@@ -2250,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
     </row>
     <row r="249">
@@ -2258,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
     </row>
     <row r="250">
@@ -2266,7 +3940,7 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
     </row>
     <row r="251">
@@ -2274,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="252">
@@ -2282,7 +3956,7 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="253">
@@ -2290,7 +3964,7 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254">
@@ -2298,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="255">
@@ -2306,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="256">
@@ -2314,7 +3988,7 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257">
@@ -2322,7 +3996,7 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="258">
@@ -2330,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
     </row>
     <row r="259">
@@ -2338,7 +4012,7 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>62</v>
+        <v>293</v>
       </c>
     </row>
     <row r="260">
@@ -2346,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>62</v>
+        <v>294</v>
       </c>
     </row>
     <row r="261">
@@ -2354,7 +4028,7 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
     </row>
     <row r="262">
@@ -2362,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
     </row>
     <row r="263">
@@ -2370,7 +4044,7 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
     </row>
     <row r="264">
@@ -2378,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>62</v>
+        <v>298</v>
       </c>
     </row>
     <row r="265">
@@ -2386,7 +4060,7 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
     </row>
     <row r="266">
@@ -2394,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
     </row>
     <row r="267">
@@ -2402,7 +4076,7 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
     </row>
     <row r="268">
@@ -2410,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>62</v>
+        <v>302</v>
       </c>
     </row>
     <row r="269">
@@ -2418,7 +4092,7 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
     </row>
     <row r="270">
@@ -2426,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
     </row>
     <row r="271">
@@ -2434,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
     </row>
     <row r="272">
@@ -2442,7 +4116,7 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
     </row>
     <row r="273">
@@ -2450,7 +4124,7 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
     </row>
     <row r="274">
@@ -2458,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275">
@@ -2466,7 +4140,7 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276">
@@ -2474,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
     </row>
     <row r="277">
@@ -2482,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
     </row>
     <row r="278">
@@ -2490,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279">
@@ -2498,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>62</v>
+        <v>313</v>
       </c>
     </row>
     <row r="280">
@@ -2506,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
     </row>
     <row r="281">
@@ -2514,7 +4188,7 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
     </row>
     <row r="282">
@@ -2522,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>62</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283">
@@ -2530,7 +4204,7 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284">
@@ -2538,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285">
@@ -2546,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286">
@@ -2554,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287">
@@ -2562,7 +4236,7 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288">
@@ -2570,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
     </row>
     <row r="289">
@@ -2578,7 +4252,7 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290">
@@ -2586,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>62</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291">
@@ -2594,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>62</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292">
@@ -2602,7 +4276,7 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>62</v>
+        <v>323</v>
       </c>
     </row>
     <row r="293">
@@ -2610,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>62</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294">
@@ -2618,7 +4292,7 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>62</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295">
@@ -2626,7 +4300,7 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296">
@@ -2634,7 +4308,7 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297">
@@ -2642,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298">
@@ -2650,7 +4324,7 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299">
@@ -2658,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300">
@@ -2666,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>62</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301">
@@ -2674,7 +4348,7 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>62</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302">
@@ -2682,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303">
@@ -2690,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>62</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304">
@@ -2698,7 +4372,7 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305">
@@ -2706,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>62</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306">
@@ -2714,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307">
@@ -2722,7 +4396,7 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308">
@@ -2730,7 +4404,7 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309">
@@ -2738,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>62</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310">
@@ -2746,7 +4420,7 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311">
@@ -2754,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312">
@@ -2762,7 +4436,7 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>62</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313">
@@ -2770,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>62</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314">
@@ -2778,7 +4452,7 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315">
@@ -2786,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316">
@@ -2794,7 +4468,7 @@
         <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317">
@@ -2802,7 +4476,7 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318">
@@ -2810,7 +4484,7 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>62</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319">
@@ -2818,7 +4492,7 @@
         <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320">
@@ -2826,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321">
@@ -2834,7 +4508,7 @@
         <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>62</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322">
@@ -2842,7 +4516,7 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>62</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323">
@@ -2850,7 +4524,7 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>62</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324">
@@ -2858,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>62</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325">
@@ -2866,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326">
@@ -2874,55 +4548,55 @@
         <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>62</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B328" t="s">
-        <v>62</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>62</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>62</v>
+        <v>279</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B332" t="e">
-        <v>#N/A</v>
+      <c r="A332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B332" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="333">
@@ -2930,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>63</v>
+        <v>363</v>
       </c>
     </row>
     <row r="334">
@@ -2938,7 +4612,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>63</v>
+        <v>364</v>
       </c>
     </row>
     <row r="335">
@@ -2946,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>63</v>
+        <v>365</v>
       </c>
     </row>
     <row r="336">
@@ -2954,503 +4628,503 @@
         <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>63</v>
+        <v>368</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>63</v>
+        <v>369</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>63</v>
+        <v>371</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>63</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B343" t="e">
-        <v>#N/A</v>
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>8</v>
-      </c>
-      <c r="B344" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>8</v>
-      </c>
-      <c r="B345" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="B345" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>8</v>
-      </c>
-      <c r="B346" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="B346" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B347" t="e">
-        <v>#N/A</v>
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>9</v>
-      </c>
-      <c r="B348" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>9</v>
-      </c>
-      <c r="B349" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B349" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>9</v>
-      </c>
-      <c r="B350" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B350" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>9</v>
-      </c>
-      <c r="B351" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B351" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B352" t="e">
-        <v>#N/A</v>
+      <c r="A352" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>10</v>
-      </c>
-      <c r="B353" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B353" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>10</v>
-      </c>
-      <c r="B354" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B354" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>10</v>
-      </c>
-      <c r="B355" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B355" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>10</v>
-      </c>
-      <c r="B356" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B357" t="e">
-        <v>#N/A</v>
+      <c r="A357" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>11</v>
-      </c>
-      <c r="B358" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B358" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>11</v>
-      </c>
-      <c r="B359" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B359" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>11</v>
-      </c>
-      <c r="B360" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B360" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>11</v>
-      </c>
-      <c r="B361" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="B361" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B362" t="e">
-        <v>#N/A</v>
+      <c r="A362" t="s">
+        <v>13</v>
+      </c>
+      <c r="B362" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>12</v>
-      </c>
-      <c r="B363" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B363" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>12</v>
-      </c>
-      <c r="B364" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B364" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>12</v>
-      </c>
-      <c r="B365" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B365" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>12</v>
-      </c>
-      <c r="B366" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B366" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>12</v>
-      </c>
-      <c r="B367" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B367" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>12</v>
-      </c>
-      <c r="B368" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B368" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B369" t="e">
-        <v>#N/A</v>
+      <c r="A369" t="s">
+        <v>14</v>
+      </c>
+      <c r="B369" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>13</v>
-      </c>
-      <c r="B370" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B370" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>13</v>
-      </c>
-      <c r="B371" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B371" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>13</v>
-      </c>
-      <c r="B372" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B372" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>13</v>
-      </c>
-      <c r="B373" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B373" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>13</v>
-      </c>
-      <c r="B374" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="B374" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B375" t="e">
-        <v>#N/A</v>
+      <c r="A375" t="s">
+        <v>15</v>
+      </c>
+      <c r="B375" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>14</v>
-      </c>
-      <c r="B376" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B376" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>14</v>
-      </c>
-      <c r="B377" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B377" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>14</v>
-      </c>
-      <c r="B378" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B378" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>14</v>
-      </c>
-      <c r="B379" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B379" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>14</v>
-      </c>
-      <c r="B380" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B380" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>14</v>
-      </c>
-      <c r="B381" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B381" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>14</v>
-      </c>
-      <c r="B382" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B382" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>14</v>
-      </c>
-      <c r="B383" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B383" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>14</v>
-      </c>
-      <c r="B384" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B384" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>14</v>
-      </c>
-      <c r="B385" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B385" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>14</v>
-      </c>
-      <c r="B386" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B386" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>14</v>
-      </c>
-      <c r="B387" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B387" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B388" t="e">
-        <v>#N/A</v>
+      <c r="A388" t="s">
+        <v>17</v>
+      </c>
+      <c r="B388" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>15</v>
-      </c>
-      <c r="B389" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B389" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>15</v>
-      </c>
-      <c r="B390" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B390" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>15</v>
-      </c>
-      <c r="B391" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B391" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>15</v>
-      </c>
-      <c r="B392" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B392" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>15</v>
-      </c>
-      <c r="B393" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B393" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>15</v>
-      </c>
-      <c r="B394" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B394" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B395" t="e">
-        <v>#N/A</v>
+      <c r="A395" t="s">
+        <v>17</v>
+      </c>
+      <c r="B395" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>16</v>
-      </c>
-      <c r="B396" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B396" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>16</v>
-      </c>
-      <c r="B397" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="B397" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B398" t="e">
-        <v>#N/A</v>
+      <c r="A398" t="s">
+        <v>17</v>
+      </c>
+      <c r="B398" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="399">
@@ -3458,7 +5132,7 @@
         <v>17</v>
       </c>
       <c r="B399" t="s">
-        <v>64</v>
+        <v>404</v>
       </c>
     </row>
     <row r="400">
@@ -3466,7 +5140,7 @@
         <v>17</v>
       </c>
       <c r="B400" t="s">
-        <v>64</v>
+        <v>405</v>
       </c>
     </row>
     <row r="401">
@@ -3474,7 +5148,7 @@
         <v>17</v>
       </c>
       <c r="B401" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
     </row>
     <row r="402">
@@ -3482,7 +5156,7 @@
         <v>17</v>
       </c>
       <c r="B402" t="s">
-        <v>64</v>
+        <v>407</v>
       </c>
     </row>
     <row r="403">
@@ -3490,7 +5164,7 @@
         <v>17</v>
       </c>
       <c r="B403" t="s">
-        <v>64</v>
+        <v>408</v>
       </c>
     </row>
     <row r="404">
@@ -3498,7 +5172,7 @@
         <v>17</v>
       </c>
       <c r="B404" t="s">
-        <v>64</v>
+        <v>409</v>
       </c>
     </row>
     <row r="405">
@@ -3506,7 +5180,7 @@
         <v>17</v>
       </c>
       <c r="B405" t="s">
-        <v>64</v>
+        <v>410</v>
       </c>
     </row>
     <row r="406">
@@ -3514,7 +5188,7 @@
         <v>17</v>
       </c>
       <c r="B406" t="s">
-        <v>64</v>
+        <v>411</v>
       </c>
     </row>
     <row r="407">
@@ -3522,7 +5196,7 @@
         <v>17</v>
       </c>
       <c r="B407" t="s">
-        <v>64</v>
+        <v>412</v>
       </c>
     </row>
     <row r="408">
@@ -3530,7 +5204,7 @@
         <v>17</v>
       </c>
       <c r="B408" t="s">
-        <v>64</v>
+        <v>413</v>
       </c>
     </row>
     <row r="409">
@@ -3538,7 +5212,7 @@
         <v>17</v>
       </c>
       <c r="B409" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
     </row>
     <row r="410">
@@ -3546,7 +5220,7 @@
         <v>17</v>
       </c>
       <c r="B410" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
     </row>
     <row r="411">
@@ -3554,7 +5228,7 @@
         <v>17</v>
       </c>
       <c r="B411" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
     </row>
     <row r="412">
@@ -3562,7 +5236,7 @@
         <v>17</v>
       </c>
       <c r="B412" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
     </row>
     <row r="413">
@@ -3570,7 +5244,7 @@
         <v>17</v>
       </c>
       <c r="B413" t="s">
-        <v>64</v>
+        <v>417</v>
       </c>
     </row>
     <row r="414">
@@ -3578,7 +5252,7 @@
         <v>17</v>
       </c>
       <c r="B414" t="s">
-        <v>64</v>
+        <v>418</v>
       </c>
     </row>
     <row r="415">
@@ -3586,7 +5260,7 @@
         <v>17</v>
       </c>
       <c r="B415" t="s">
-        <v>64</v>
+        <v>419</v>
       </c>
     </row>
     <row r="416">
@@ -3594,7 +5268,7 @@
         <v>17</v>
       </c>
       <c r="B416" t="s">
-        <v>64</v>
+        <v>420</v>
       </c>
     </row>
     <row r="417">
@@ -3602,7 +5276,7 @@
         <v>17</v>
       </c>
       <c r="B417" t="s">
-        <v>64</v>
+        <v>421</v>
       </c>
     </row>
     <row r="418">
@@ -3610,7 +5284,7 @@
         <v>17</v>
       </c>
       <c r="B418" t="s">
-        <v>64</v>
+        <v>422</v>
       </c>
     </row>
     <row r="419">
@@ -3618,7 +5292,7 @@
         <v>17</v>
       </c>
       <c r="B419" t="s">
-        <v>64</v>
+        <v>423</v>
       </c>
     </row>
     <row r="420">
@@ -3626,7 +5300,7 @@
         <v>17</v>
       </c>
       <c r="B420" t="s">
-        <v>64</v>
+        <v>424</v>
       </c>
     </row>
     <row r="421">
@@ -3634,295 +5308,295 @@
         <v>17</v>
       </c>
       <c r="B421" t="s">
-        <v>64</v>
+        <v>425</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B422" t="s">
-        <v>64</v>
+        <v>426</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B423" t="s">
-        <v>64</v>
+        <v>427</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B424" t="s">
-        <v>64</v>
+        <v>428</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B425" t="s">
-        <v>64</v>
+        <v>429</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B426" t="s">
-        <v>64</v>
+        <v>430</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B427" t="s">
-        <v>64</v>
+        <v>431</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B428" t="s">
-        <v>64</v>
+        <v>432</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B429" t="s">
-        <v>64</v>
+        <v>433</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B430" t="s">
-        <v>64</v>
+        <v>434</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B431" t="s">
-        <v>64</v>
+        <v>435</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B432" t="s">
-        <v>64</v>
+        <v>436</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B433" t="s">
-        <v>64</v>
+        <v>437</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B434" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B435" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B436" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B437" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B438" t="e">
-        <v>#N/A</v>
+      <c r="A438" t="s">
+        <v>21</v>
+      </c>
+      <c r="B438" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>18</v>
-      </c>
-      <c r="B439" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B439" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>18</v>
-      </c>
-      <c r="B440" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B440" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>18</v>
-      </c>
-      <c r="B441" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B441" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B442" t="e">
-        <v>#N/A</v>
+      <c r="A442" t="s">
+        <v>21</v>
+      </c>
+      <c r="B442" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>19</v>
-      </c>
-      <c r="B443" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B443" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>19</v>
-      </c>
-      <c r="B444" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B444" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>19</v>
-      </c>
-      <c r="B445" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B445" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>19</v>
-      </c>
-      <c r="B446" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B446" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>19</v>
-      </c>
-      <c r="B447" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B447" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>19</v>
-      </c>
-      <c r="B448" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B448" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>19</v>
-      </c>
-      <c r="B449" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B449" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>19</v>
-      </c>
-      <c r="B450" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B450" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>19</v>
-      </c>
-      <c r="B451" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B451" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B452" t="e">
-        <v>#N/A</v>
+      <c r="A452" t="s">
+        <v>21</v>
+      </c>
+      <c r="B452" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>20</v>
-      </c>
-      <c r="B453" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B453" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>20</v>
-      </c>
-      <c r="B454" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B454" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>20</v>
-      </c>
-      <c r="B455" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B455" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>20</v>
-      </c>
-      <c r="B456" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B456" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B457" t="e">
-        <v>#N/A</v>
+      <c r="A457" t="s">
+        <v>21</v>
+      </c>
+      <c r="B457" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="458">
@@ -3930,7 +5604,7 @@
         <v>21</v>
       </c>
       <c r="B458" t="s">
-        <v>65</v>
+        <v>449</v>
       </c>
     </row>
     <row r="459">
@@ -3938,7 +5612,7 @@
         <v>21</v>
       </c>
       <c r="B459" t="s">
-        <v>65</v>
+        <v>450</v>
       </c>
     </row>
     <row r="460">
@@ -3946,7 +5620,7 @@
         <v>21</v>
       </c>
       <c r="B460" t="s">
-        <v>65</v>
+        <v>451</v>
       </c>
     </row>
     <row r="461">
@@ -3954,7 +5628,7 @@
         <v>21</v>
       </c>
       <c r="B461" t="s">
-        <v>65</v>
+        <v>452</v>
       </c>
     </row>
     <row r="462">
@@ -3962,7 +5636,7 @@
         <v>21</v>
       </c>
       <c r="B462" t="s">
-        <v>65</v>
+        <v>453</v>
       </c>
     </row>
     <row r="463">
@@ -3970,7 +5644,7 @@
         <v>21</v>
       </c>
       <c r="B463" t="s">
-        <v>65</v>
+        <v>454</v>
       </c>
     </row>
     <row r="464">
@@ -3978,7 +5652,7 @@
         <v>21</v>
       </c>
       <c r="B464" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
     </row>
     <row r="465">
@@ -3986,7 +5660,7 @@
         <v>21</v>
       </c>
       <c r="B465" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
     </row>
     <row r="466">
@@ -3994,7 +5668,7 @@
         <v>21</v>
       </c>
       <c r="B466" t="s">
-        <v>65</v>
+        <v>457</v>
       </c>
     </row>
     <row r="467">
@@ -4002,7 +5676,7 @@
         <v>21</v>
       </c>
       <c r="B467" t="s">
-        <v>65</v>
+        <v>452</v>
       </c>
     </row>
     <row r="468">
@@ -4018,7 +5692,7 @@
         <v>21</v>
       </c>
       <c r="B469" t="s">
-        <v>65</v>
+        <v>458</v>
       </c>
     </row>
     <row r="470">
@@ -4026,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="B470" t="s">
-        <v>65</v>
+        <v>459</v>
       </c>
     </row>
     <row r="471">
@@ -4034,7 +5708,7 @@
         <v>21</v>
       </c>
       <c r="B471" t="s">
-        <v>65</v>
+        <v>460</v>
       </c>
     </row>
     <row r="472">
@@ -4042,7 +5716,7 @@
         <v>21</v>
       </c>
       <c r="B472" t="s">
-        <v>65</v>
+        <v>461</v>
       </c>
     </row>
     <row r="473">
@@ -4050,7 +5724,7 @@
         <v>21</v>
       </c>
       <c r="B473" t="s">
-        <v>65</v>
+        <v>462</v>
       </c>
     </row>
     <row r="474">
@@ -4058,7 +5732,7 @@
         <v>21</v>
       </c>
       <c r="B474" t="s">
-        <v>65</v>
+        <v>463</v>
       </c>
     </row>
     <row r="475">
@@ -4066,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="B475" t="s">
-        <v>65</v>
+        <v>464</v>
       </c>
     </row>
     <row r="476">
@@ -4074,7 +5748,7 @@
         <v>21</v>
       </c>
       <c r="B476" t="s">
-        <v>65</v>
+        <v>465</v>
       </c>
     </row>
     <row r="477">
@@ -4082,7 +5756,7 @@
         <v>21</v>
       </c>
       <c r="B477" t="s">
-        <v>65</v>
+        <v>466</v>
       </c>
     </row>
     <row r="478">
@@ -4090,7 +5764,7 @@
         <v>21</v>
       </c>
       <c r="B478" t="s">
-        <v>65</v>
+        <v>467</v>
       </c>
     </row>
     <row r="479">
@@ -4098,7 +5772,7 @@
         <v>21</v>
       </c>
       <c r="B479" t="s">
-        <v>65</v>
+        <v>468</v>
       </c>
     </row>
     <row r="480">
@@ -4106,7 +5780,7 @@
         <v>21</v>
       </c>
       <c r="B480" t="s">
-        <v>65</v>
+        <v>469</v>
       </c>
     </row>
     <row r="481">
@@ -4114,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="B481" t="s">
-        <v>65</v>
+        <v>470</v>
       </c>
     </row>
     <row r="482">
@@ -4122,7 +5796,7 @@
         <v>21</v>
       </c>
       <c r="B482" t="s">
-        <v>65</v>
+        <v>471</v>
       </c>
     </row>
     <row r="483">
@@ -4130,7 +5804,7 @@
         <v>21</v>
       </c>
       <c r="B483" t="s">
-        <v>65</v>
+        <v>472</v>
       </c>
     </row>
     <row r="484">
@@ -4138,919 +5812,919 @@
         <v>21</v>
       </c>
       <c r="B484" t="s">
-        <v>65</v>
+        <v>473</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B485" t="s">
-        <v>65</v>
+        <v>474</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B486" t="s">
-        <v>65</v>
+        <v>475</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B487" t="s">
-        <v>65</v>
+        <v>476</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B488" t="s">
-        <v>65</v>
+        <v>477</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B489" t="s">
-        <v>65</v>
+        <v>478</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B490" t="s">
-        <v>65</v>
+        <v>479</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B491" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B492" t="s">
-        <v>65</v>
+        <v>480</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B493" t="s">
-        <v>65</v>
+        <v>481</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B494" t="s">
-        <v>65</v>
+        <v>299</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B495" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B496" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B497" t="s">
-        <v>65</v>
+        <v>482</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B498" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B499" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B500" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B501" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B502" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B503" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B504" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B505" t="e">
-        <v>#N/A</v>
+      <c r="A505" t="s">
+        <v>26</v>
+      </c>
+      <c r="B505" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>22</v>
-      </c>
-      <c r="B506" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B506" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>22</v>
-      </c>
-      <c r="B507" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B507" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>22</v>
-      </c>
-      <c r="B508" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B508" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>22</v>
-      </c>
-      <c r="B509" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B509" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>22</v>
-      </c>
-      <c r="B510" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B510" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B511" t="e">
-        <v>#N/A</v>
+      <c r="A511" t="s">
+        <v>26</v>
+      </c>
+      <c r="B511" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>23</v>
-      </c>
-      <c r="B512" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B512" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>23</v>
-      </c>
-      <c r="B513" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B513" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>23</v>
-      </c>
-      <c r="B514" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B514" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>23</v>
-      </c>
-      <c r="B515" t="e">
-        <v>#N/A</v>
+        <v>26</v>
+      </c>
+      <c r="B515" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B516" t="e">
-        <v>#N/A</v>
+      <c r="A516" t="s">
+        <v>27</v>
+      </c>
+      <c r="B516" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>24</v>
-      </c>
-      <c r="B517" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B517" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>24</v>
-      </c>
-      <c r="B518" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B518" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>24</v>
-      </c>
-      <c r="B519" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B519" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>24</v>
-      </c>
-      <c r="B520" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B520" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B521" t="e">
-        <v>#N/A</v>
+      <c r="A521" t="s">
+        <v>27</v>
+      </c>
+      <c r="B521" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>25</v>
-      </c>
-      <c r="B522" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B522" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>25</v>
-      </c>
-      <c r="B523" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B523" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>25</v>
-      </c>
-      <c r="B524" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B524" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>25</v>
-      </c>
-      <c r="B525" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B525" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>25</v>
-      </c>
-      <c r="B526" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B526" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>25</v>
-      </c>
-      <c r="B527" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B527" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B528" t="e">
-        <v>#N/A</v>
+      <c r="A528" t="s">
+        <v>27</v>
+      </c>
+      <c r="B528" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>26</v>
-      </c>
-      <c r="B529" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B529" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>26</v>
-      </c>
-      <c r="B530" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B530" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>26</v>
-      </c>
-      <c r="B531" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B531" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>26</v>
-      </c>
-      <c r="B532" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="B532" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>26</v>
-      </c>
-      <c r="B533" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B533" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>26</v>
-      </c>
-      <c r="B534" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B534" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>26</v>
-      </c>
-      <c r="B535" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B535" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>26</v>
-      </c>
-      <c r="B536" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B536" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>26</v>
-      </c>
-      <c r="B537" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B537" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>26</v>
-      </c>
-      <c r="B538" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B538" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>26</v>
-      </c>
-      <c r="B539" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B539" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>26</v>
-      </c>
-      <c r="B540" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B540" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B541" t="e">
-        <v>#N/A</v>
+      <c r="A541" t="s">
+        <v>29</v>
+      </c>
+      <c r="B541" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>27</v>
-      </c>
-      <c r="B542" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B542" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>27</v>
-      </c>
-      <c r="B543" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B543" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>27</v>
-      </c>
-      <c r="B544" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B544" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>27</v>
-      </c>
-      <c r="B545" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B545" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>27</v>
-      </c>
-      <c r="B546" t="e">
-        <v>#N/A</v>
+        <v>29</v>
+      </c>
+      <c r="B546" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>27</v>
-      </c>
-      <c r="B547" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B547" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>27</v>
-      </c>
-      <c r="B548" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B548" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>27</v>
-      </c>
-      <c r="B549" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B549" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>27</v>
-      </c>
-      <c r="B550" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B550" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>27</v>
-      </c>
-      <c r="B551" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B551" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>27</v>
-      </c>
-      <c r="B552" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B552" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>27</v>
-      </c>
-      <c r="B553" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="B553" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>27</v>
-      </c>
-      <c r="B554" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="B554" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>27</v>
-      </c>
-      <c r="B555" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="B555" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>27</v>
-      </c>
-      <c r="B556" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="B556" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>27</v>
-      </c>
-      <c r="B557" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="B557" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>27</v>
-      </c>
-      <c r="B558" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="B558" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B559" t="e">
-        <v>#N/A</v>
+      <c r="A559" t="s">
+        <v>32</v>
+      </c>
+      <c r="B559" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>28</v>
-      </c>
-      <c r="B560" t="e">
-        <v>#N/A</v>
+        <v>32</v>
+      </c>
+      <c r="B560" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>28</v>
-      </c>
-      <c r="B561" t="e">
-        <v>#N/A</v>
+        <v>32</v>
+      </c>
+      <c r="B561" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>28</v>
-      </c>
-      <c r="B562" t="e">
-        <v>#N/A</v>
+        <v>32</v>
+      </c>
+      <c r="B562" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B563" t="e">
-        <v>#N/A</v>
+      <c r="A563" t="s">
+        <v>32</v>
+      </c>
+      <c r="B563" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>29</v>
-      </c>
-      <c r="B564" t="e">
-        <v>#N/A</v>
+        <v>33</v>
+      </c>
+      <c r="B564" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>29</v>
-      </c>
-      <c r="B565" t="e">
-        <v>#N/A</v>
+        <v>33</v>
+      </c>
+      <c r="B565" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>29</v>
-      </c>
-      <c r="B566" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B566" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>29</v>
-      </c>
-      <c r="B567" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B567" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>29</v>
-      </c>
-      <c r="B568" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B568" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>29</v>
-      </c>
-      <c r="B569" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B569" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>29</v>
-      </c>
-      <c r="B570" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B570" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>29</v>
-      </c>
-      <c r="B571" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B571" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>29</v>
-      </c>
-      <c r="B572" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B572" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>29</v>
-      </c>
-      <c r="B573" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B573" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>29</v>
-      </c>
-      <c r="B574" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B574" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B575" t="e">
-        <v>#N/A</v>
+      <c r="A575" t="s">
+        <v>34</v>
+      </c>
+      <c r="B575" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>30</v>
-      </c>
-      <c r="B576" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B576" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>30</v>
-      </c>
-      <c r="B577" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B577" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>30</v>
-      </c>
-      <c r="B578" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B578" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>30</v>
-      </c>
-      <c r="B579" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B579" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>30</v>
-      </c>
-      <c r="B580" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B580" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>30</v>
-      </c>
-      <c r="B581" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B581" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>30</v>
-      </c>
-      <c r="B582" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B582" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B583" t="e">
-        <v>#N/A</v>
+      <c r="A583" t="s">
+        <v>34</v>
+      </c>
+      <c r="B583" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>31</v>
-      </c>
-      <c r="B584" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B584" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>31</v>
-      </c>
-      <c r="B585" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B585" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>31</v>
-      </c>
-      <c r="B586" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B586" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>31</v>
-      </c>
-      <c r="B587" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B587" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>31</v>
-      </c>
-      <c r="B588" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B588" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B589" t="e">
-        <v>#N/A</v>
+      <c r="A589" t="s">
+        <v>34</v>
+      </c>
+      <c r="B589" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>32</v>
-      </c>
-      <c r="B590" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B590" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>32</v>
-      </c>
-      <c r="B591" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B591" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>32</v>
-      </c>
-      <c r="B592" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B592" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>32</v>
-      </c>
-      <c r="B593" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B593" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>32</v>
-      </c>
-      <c r="B594" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B594" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B595" t="e">
-        <v>#N/A</v>
+      <c r="A595" t="s">
+        <v>34</v>
+      </c>
+      <c r="B595" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>33</v>
-      </c>
-      <c r="B596" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B596" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>33</v>
-      </c>
-      <c r="B597" t="e">
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="B597" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B598" t="e">
-        <v>#N/A</v>
+      <c r="A598" t="s">
+        <v>34</v>
+      </c>
+      <c r="B598" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="599">
@@ -5058,7 +6732,7 @@
         <v>34</v>
       </c>
       <c r="B599" t="s">
-        <v>66</v>
+        <v>537</v>
       </c>
     </row>
     <row r="600">
@@ -5066,1447 +6740,1007 @@
         <v>34</v>
       </c>
       <c r="B600" t="s">
-        <v>66</v>
+        <v>538</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B601" t="s">
-        <v>66</v>
+        <v>510</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B602" t="s">
-        <v>66</v>
+        <v>539</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B603" t="s">
-        <v>66</v>
+        <v>540</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B604" t="s">
-        <v>66</v>
+        <v>541</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B605" t="s">
-        <v>66</v>
+        <v>542</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B606" t="s">
-        <v>66</v>
+        <v>543</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B607" t="s">
-        <v>66</v>
+        <v>509</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B608" t="s">
-        <v>66</v>
+        <v>510</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B609" t="s">
-        <v>66</v>
+        <v>511</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B610" t="s">
-        <v>66</v>
+        <v>512</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B611" t="s">
-        <v>66</v>
+        <v>544</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B612" t="s">
-        <v>66</v>
+        <v>545</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B613" t="s">
-        <v>66</v>
+        <v>545</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B614" t="s">
-        <v>66</v>
+        <v>546</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B615" t="s">
-        <v>66</v>
+        <v>547</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B616" t="s">
-        <v>66</v>
+        <v>548</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B617" t="s">
-        <v>66</v>
+        <v>549</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B618" t="s">
-        <v>66</v>
+        <v>550</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B619" t="s">
-        <v>66</v>
+        <v>551</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B620" t="s">
-        <v>66</v>
+        <v>552</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B621" t="s">
-        <v>66</v>
+        <v>553</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B622" t="s">
-        <v>66</v>
+        <v>554</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B623" t="s">
-        <v>66</v>
+        <v>555</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B624" t="s">
-        <v>66</v>
+        <v>556</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B625" t="s">
-        <v>66</v>
+        <v>557</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B626" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B627" t="s">
-        <v>66</v>
+        <v>559</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B628" t="s">
-        <v>66</v>
+        <v>560</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B629" t="s">
-        <v>66</v>
+        <v>561</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B630" t="s">
-        <v>66</v>
+        <v>562</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B631" t="s">
-        <v>66</v>
+        <v>563</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B632" t="s">
-        <v>66</v>
+        <v>564</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B633" t="s">
-        <v>66</v>
+        <v>565</v>
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B634" t="e">
-        <v>#N/A</v>
+      <c r="A634" t="s">
+        <v>41</v>
+      </c>
+      <c r="B634" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>35</v>
-      </c>
-      <c r="B635" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B635" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>35</v>
-      </c>
-      <c r="B636" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="B636" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>35</v>
-      </c>
-      <c r="B637" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="B637" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>35</v>
-      </c>
-      <c r="B638" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="B638" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>35</v>
-      </c>
-      <c r="B639" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="B639" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>35</v>
-      </c>
-      <c r="B640" t="e">
-        <v>#N/A</v>
+        <v>43</v>
+      </c>
+      <c r="B640" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>35</v>
-      </c>
-      <c r="B641" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="B641" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>35</v>
-      </c>
-      <c r="B642" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="B642" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>35</v>
-      </c>
-      <c r="B643" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="B643" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>35</v>
-      </c>
-      <c r="B644" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="B644" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="645">
-      <c r="A645" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B645" t="e">
-        <v>#N/A</v>
+      <c r="A645" t="s">
+        <v>45</v>
+      </c>
+      <c r="B645" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>36</v>
-      </c>
-      <c r="B646" t="e">
-        <v>#N/A</v>
+        <v>46</v>
+      </c>
+      <c r="B646" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>36</v>
-      </c>
-      <c r="B647" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B647" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>36</v>
-      </c>
-      <c r="B648" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B648" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="649">
-      <c r="A649" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B649" t="e">
-        <v>#N/A</v>
+      <c r="A649" t="s">
+        <v>47</v>
+      </c>
+      <c r="B649" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>37</v>
-      </c>
-      <c r="B650" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B650" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>37</v>
-      </c>
-      <c r="B651" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B651" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>37</v>
-      </c>
-      <c r="B652" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B652" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>37</v>
-      </c>
-      <c r="B653" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B653" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>37</v>
-      </c>
-      <c r="B654" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B654" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B655" t="e">
-        <v>#N/A</v>
+      <c r="A655" t="s">
+        <v>48</v>
+      </c>
+      <c r="B655" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>38</v>
-      </c>
-      <c r="B656" t="e">
-        <v>#N/A</v>
+        <v>48</v>
+      </c>
+      <c r="B656" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>38</v>
-      </c>
-      <c r="B657" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B657" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="658">
-      <c r="A658" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B658" t="e">
-        <v>#N/A</v>
+      <c r="A658" t="s">
+        <v>49</v>
+      </c>
+      <c r="B658" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>39</v>
-      </c>
-      <c r="B659" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B659" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>39</v>
-      </c>
-      <c r="B660" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B660" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>39</v>
-      </c>
-      <c r="B661" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B661" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>39</v>
-      </c>
-      <c r="B662" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B662" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>39</v>
-      </c>
-      <c r="B663" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B663" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>39</v>
-      </c>
-      <c r="B664" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B664" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>39</v>
-      </c>
-      <c r="B665" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B665" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>39</v>
-      </c>
-      <c r="B666" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B666" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>39</v>
-      </c>
-      <c r="B667" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B667" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>39</v>
-      </c>
-      <c r="B668" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B668" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>39</v>
-      </c>
-      <c r="B669" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B669" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="670">
-      <c r="A670" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B670" t="e">
-        <v>#N/A</v>
+      <c r="A670" t="s">
+        <v>50</v>
+      </c>
+      <c r="B670" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>40</v>
-      </c>
-      <c r="B671" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B671" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>40</v>
-      </c>
-      <c r="B672" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B672" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B673" t="e">
-        <v>#N/A</v>
+      <c r="A673" t="s">
+        <v>51</v>
+      </c>
+      <c r="B673" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>41</v>
-      </c>
-      <c r="B674" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B674" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>41</v>
-      </c>
-      <c r="B675" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B675" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B676" t="e">
-        <v>#N/A</v>
+      <c r="A676" t="s">
+        <v>51</v>
+      </c>
+      <c r="B676" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>42</v>
-      </c>
-      <c r="B677" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B677" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>42</v>
-      </c>
-      <c r="B678" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B678" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>42</v>
-      </c>
-      <c r="B679" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B679" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>42</v>
-      </c>
-      <c r="B680" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B680" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B681" t="e">
-        <v>#N/A</v>
+      <c r="A681" t="s">
+        <v>52</v>
+      </c>
+      <c r="B681" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B682" t="s">
-        <v>67</v>
+        <v>596</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>44</v>
-      </c>
-      <c r="B683" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B683" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>44</v>
-      </c>
-      <c r="B684" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B684" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B685" t="e">
-        <v>#N/A</v>
+      <c r="A685" t="s">
+        <v>52</v>
+      </c>
+      <c r="B685" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>45</v>
-      </c>
-      <c r="B686" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B686" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>45</v>
-      </c>
-      <c r="B687" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B687" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>45</v>
-      </c>
-      <c r="B688" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B688" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="689">
-      <c r="A689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B689" t="e">
-        <v>#N/A</v>
+      <c r="A689" t="s">
+        <v>52</v>
+      </c>
+      <c r="B689" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B690" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>47</v>
-      </c>
-      <c r="B691" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B691" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>47</v>
-      </c>
-      <c r="B692" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B692" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>47</v>
-      </c>
-      <c r="B693" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B693" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>47</v>
-      </c>
-      <c r="B694" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B694" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>47</v>
-      </c>
-      <c r="B695" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B695" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>47</v>
-      </c>
-      <c r="B696" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B696" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>47</v>
-      </c>
-      <c r="B697" t="e">
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="B697" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>47</v>
-      </c>
-      <c r="B698" t="e">
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="B698" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="699">
-      <c r="A699" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B699" t="e">
-        <v>#N/A</v>
+      <c r="A699" t="s">
+        <v>53</v>
+      </c>
+      <c r="B699" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>48</v>
-      </c>
-      <c r="B700" t="e">
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="B700" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>48</v>
-      </c>
-      <c r="B701" t="e">
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="B701" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B702" t="e">
-        <v>#N/A</v>
+      <c r="A702" t="s">
+        <v>53</v>
+      </c>
+      <c r="B702" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>49</v>
-      </c>
-      <c r="B703" t="e">
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="B703" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>49</v>
-      </c>
-      <c r="B704" t="e">
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="B704" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>49</v>
-      </c>
-      <c r="B705" t="e">
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="B705" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>49</v>
-      </c>
-      <c r="B706" t="e">
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="B706" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>49</v>
-      </c>
-      <c r="B707" t="e">
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="B707" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>49</v>
-      </c>
-      <c r="B708" t="e">
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="B708" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B709" t="e">
-        <v>#N/A</v>
+      <c r="A709" t="s">
+        <v>55</v>
+      </c>
+      <c r="B709" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>50</v>
-      </c>
-      <c r="B710" t="e">
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="B710" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>50</v>
-      </c>
-      <c r="B711" t="e">
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="B711" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>50</v>
-      </c>
-      <c r="B712" t="e">
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="B712" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>50</v>
-      </c>
-      <c r="B713" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B713" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>50</v>
-      </c>
-      <c r="B714" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B714" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>50</v>
-      </c>
-      <c r="B715" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B715" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>50</v>
-      </c>
-      <c r="B716" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B716" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>50</v>
-      </c>
-      <c r="B717" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B717" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>50</v>
-      </c>
-      <c r="B718" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B718" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="719">
-      <c r="A719" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B719" t="e">
-        <v>#N/A</v>
+      <c r="A719" t="s">
+        <v>56</v>
+      </c>
+      <c r="B719" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>51</v>
-      </c>
-      <c r="B720" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B720" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>51</v>
-      </c>
-      <c r="B721" t="e">
-        <v>#N/A</v>
+        <v>57</v>
+      </c>
+      <c r="B721" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>51</v>
-      </c>
-      <c r="B722" t="e">
-        <v>#N/A</v>
+        <v>57</v>
+      </c>
+      <c r="B722" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>51</v>
-      </c>
-      <c r="B723" t="e">
-        <v>#N/A</v>
+        <v>57</v>
+      </c>
+      <c r="B723" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>51</v>
-      </c>
-      <c r="B724" t="e">
-        <v>#N/A</v>
+        <v>58</v>
+      </c>
+      <c r="B724" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>51</v>
-      </c>
-      <c r="B725" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="s">
-        <v>51</v>
-      </c>
-      <c r="B726" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="s">
-        <v>51</v>
-      </c>
-      <c r="B727" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="s">
-        <v>51</v>
-      </c>
-      <c r="B728" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B729" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="s">
-        <v>52</v>
-      </c>
-      <c r="B730" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="s">
-        <v>52</v>
-      </c>
-      <c r="B731" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="s">
-        <v>52</v>
-      </c>
-      <c r="B732" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="s">
-        <v>52</v>
-      </c>
-      <c r="B733" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="s">
-        <v>52</v>
-      </c>
-      <c r="B734" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="s">
-        <v>52</v>
-      </c>
-      <c r="B735" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="s">
-        <v>52</v>
-      </c>
-      <c r="B736" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="s">
-        <v>52</v>
-      </c>
-      <c r="B737" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="s">
-        <v>52</v>
-      </c>
-      <c r="B738" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="s">
-        <v>52</v>
-      </c>
-      <c r="B739" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="s">
-        <v>52</v>
-      </c>
-      <c r="B740" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="s">
-        <v>52</v>
-      </c>
-      <c r="B741" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="s">
-        <v>52</v>
-      </c>
-      <c r="B742" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="s">
-        <v>52</v>
-      </c>
-      <c r="B743" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="s">
-        <v>52</v>
-      </c>
-      <c r="B744" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="s">
-        <v>52</v>
-      </c>
-      <c r="B745" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B746" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="s">
-        <v>53</v>
-      </c>
-      <c r="B747" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="s">
-        <v>53</v>
-      </c>
-      <c r="B748" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="s">
-        <v>53</v>
-      </c>
-      <c r="B749" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="s">
-        <v>53</v>
-      </c>
-      <c r="B750" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="s">
-        <v>53</v>
-      </c>
-      <c r="B751" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="s">
-        <v>53</v>
-      </c>
-      <c r="B752" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B753" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="s">
-        <v>54</v>
-      </c>
-      <c r="B754" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="s">
-        <v>54</v>
-      </c>
-      <c r="B755" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="s">
-        <v>54</v>
-      </c>
-      <c r="B756" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="s">
-        <v>54</v>
-      </c>
-      <c r="B757" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="s">
-        <v>54</v>
-      </c>
-      <c r="B758" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="s">
-        <v>54</v>
-      </c>
-      <c r="B759" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B760" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="s">
-        <v>55</v>
-      </c>
-      <c r="B761" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="s">
-        <v>55</v>
-      </c>
-      <c r="B762" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="s">
-        <v>55</v>
-      </c>
-      <c r="B763" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="s">
-        <v>55</v>
-      </c>
-      <c r="B764" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B765" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="s">
-        <v>56</v>
-      </c>
-      <c r="B766" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="s">
-        <v>56</v>
-      </c>
-      <c r="B767" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="s">
-        <v>56</v>
-      </c>
-      <c r="B768" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="s">
-        <v>56</v>
-      </c>
-      <c r="B769" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="s">
-        <v>56</v>
-      </c>
-      <c r="B770" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="s">
-        <v>56</v>
-      </c>
-      <c r="B771" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="s">
-        <v>56</v>
-      </c>
-      <c r="B772" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="s">
-        <v>56</v>
-      </c>
-      <c r="B773" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B774" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="s">
-        <v>57</v>
-      </c>
-      <c r="B775" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="s">
-        <v>57</v>
-      </c>
-      <c r="B776" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="s">
-        <v>57</v>
-      </c>
-      <c r="B777" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B778" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="s">
         <v>58</v>
       </c>
-      <c r="B779" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="s">
-        <v>58</v>
-      </c>
-      <c r="B780" t="e">
-        <v>#N/A</v>
+      <c r="B725" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
